--- a/Etapa 2/Checklist Gerência de Projeto.xlsx
+++ b/Etapa 2/Checklist Gerência de Projeto.xlsx
@@ -678,21 +678,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -998,7 +998,7 @@
   <dimension ref="B1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1008,10 +1008,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="C1" s="9"/>
+      <c r="C1" s="11"/>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
@@ -1026,52 +1026,52 @@
     </row>
     <row r="5" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="8" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="4"/>
-      <c r="C9" s="7" t="s">
+      <c r="B9" s="3"/>
+      <c r="C9" s="6" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="4"/>
-      <c r="C10" s="7" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="6" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="4"/>
-      <c r="C11" s="7" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="6" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="4"/>
-      <c r="C12" s="7" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="6" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="6"/>
-      <c r="C13" s="8" t="s">
+      <c r="B13" s="5"/>
+      <c r="C13" s="7" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1109,12 +1109,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1444,12 +1444,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1623,12 +1623,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1820,12 +1820,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1890,12 +1890,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1987,12 +1987,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -2185,12 +2185,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">

--- a/Etapa 2/Checklist Gerência de Projeto.xlsx
+++ b/Etapa 2/Checklist Gerência de Projeto.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Indice" sheetId="1" r:id="rId1"/>
@@ -12,8 +12,8 @@
     <sheet name="CM" sheetId="3" r:id="rId3"/>
     <sheet name="CP" sheetId="4" r:id="rId4"/>
     <sheet name="DRP" sheetId="5" r:id="rId5"/>
-    <sheet name="PC" sheetId="6" r:id="rId6"/>
-    <sheet name="PGP" sheetId="7" r:id="rId7"/>
+    <sheet name="PGP" sheetId="7" r:id="rId6"/>
+    <sheet name="PC" sheetId="6" r:id="rId7"/>
     <sheet name="RCP" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
@@ -21,7 +21,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Indice!$A$1:$D$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Processo!$A$1:$D$34</definedName>
   </definedNames>
-  <calcPr calcId="144525" iterateDelta="1E-4"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="147">
   <si>
     <t>Controle de Qualidade</t>
   </si>
@@ -176,9 +176,6 @@
     <t>As entradas para a atividade "Conduzir Execução do Projeto", foram entregues antes do inicio dessa atividade?</t>
   </si>
   <si>
-    <t>As tarefas da atividade "Conduzir Execução do Projeto", foram realizadas?</t>
-  </si>
-  <si>
     <t>As pré-condições para a atividade "Conduzir Execução do Projeto", foram atendidas?</t>
   </si>
   <si>
@@ -609,6 +606,12 @@
   </si>
   <si>
     <t>ok</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Há não conformidade</t>
   </si>
 </sst>
 </file>
@@ -752,12 +755,6 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -770,6 +767,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -1143,81 +1146,81 @@
   <dimension ref="B1:C13"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" customWidth="1"/>
-    <col min="2" max="2" width="42.85546875" customWidth="1"/>
-    <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="1025" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" customWidth="1"/>
+    <col min="2" max="2" width="42.88671875" customWidth="1"/>
+    <col min="3" max="3" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="1025" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C1" s="13"/>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="4"/>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="2"/>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="7"/>
-      <c r="C9" s="10" t="s">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="5"/>
+      <c r="C9" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="7"/>
-      <c r="C10" s="10" t="s">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="5"/>
+      <c r="C10" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="7"/>
-      <c r="C11" s="10" t="s">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="5"/>
+      <c r="C11" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="7"/>
-      <c r="C12" s="10" t="s">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="5"/>
+      <c r="C12" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="11"/>
-      <c r="C13" s="12" t="s">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="9"/>
+      <c r="C13" s="10" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1243,42 +1246,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="B1" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" customWidth="1"/>
-    <col min="2" max="2" width="106.42578125" customWidth="1"/>
-    <col min="3" max="3" width="43.42578125" customWidth="1"/>
-    <col min="4" max="4" width="5" customWidth="1"/>
-    <col min="5" max="1025" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" customWidth="1"/>
+    <col min="2" max="2" width="106.44140625" customWidth="1"/>
+    <col min="3" max="3" width="43.44140625" customWidth="1"/>
+    <col min="4" max="4" width="63.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="1025" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1286,10 +1289,13 @@
         <v>16</v>
       </c>
       <c r="C3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <f t="shared" ref="A4:A34" si="0">A3+1</f>
         <v>2</v>
@@ -1298,10 +1304,13 @@
         <v>18</v>
       </c>
       <c r="C4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1310,10 +1319,13 @@
         <v>20</v>
       </c>
       <c r="C5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1321,11 +1333,11 @@
       <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1333,11 +1345,11 @@
       <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1345,11 +1357,11 @@
       <c r="B8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1357,11 +1369,11 @@
       <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1369,11 +1381,11 @@
       <c r="B10" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1381,11 +1393,11 @@
       <c r="B11" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1393,11 +1405,11 @@
       <c r="B12" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1405,11 +1417,11 @@
       <c r="B13" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1418,10 +1430,13 @@
         <v>30</v>
       </c>
       <c r="C14" t="s">
+        <v>146</v>
+      </c>
+      <c r="D14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1429,11 +1444,11 @@
       <c r="B15" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1441,11 +1456,11 @@
       <c r="B16" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C16" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1453,11 +1468,11 @@
       <c r="B17" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1465,11 +1480,11 @@
       <c r="B18" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1477,11 +1492,11 @@
       <c r="B19" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1489,11 +1504,11 @@
       <c r="B20" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1501,11 +1516,11 @@
       <c r="B21" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1513,11 +1528,11 @@
       <c r="B22" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1525,139 +1540,139 @@
       <c r="B23" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B24" t="s">
+        <v>145</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="C25" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="C26" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="C27" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="C28" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="C29" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="C30" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="C31" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="C32" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="C33" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="11" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1681,168 +1696,168 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" customWidth="1"/>
-    <col min="2" max="2" width="65.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="1025" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" customWidth="1"/>
+    <col min="2" max="2" width="65.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" customWidth="1"/>
+    <col min="4" max="1025" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <f t="shared" ref="A4:A17" si="0">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1862,186 +1877,186 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" customWidth="1"/>
-    <col min="2" max="2" width="69.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="1025" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" customWidth="1"/>
+    <col min="2" max="2" width="69.44140625" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" customWidth="1"/>
+    <col min="4" max="1025" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <f t="shared" ref="A4:A19" si="0">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2057,73 +2072,73 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" customWidth="1"/>
-    <col min="2" max="2" width="69.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="1025" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" customWidth="1"/>
+    <col min="2" max="2" width="69.44140625" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" customWidth="1"/>
+    <col min="4" max="1025" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <f>A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>145</v>
+        <v>88</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2137,92 +2152,290 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.5546875" customWidth="1"/>
+    <col min="2" max="2" width="50.6640625" customWidth="1"/>
+    <col min="3" max="1025" width="8.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <f t="shared" ref="A4:A19" si="0">A3+1</f>
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" customWidth="1"/>
-    <col min="2" max="2" width="69.140625" customWidth="1"/>
-    <col min="3" max="1025" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" customWidth="1"/>
+    <col min="2" max="2" width="69.109375" customWidth="1"/>
+    <col min="3" max="1025" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <f>A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <f>A5+1</f>
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <f>A6+1</f>
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <f>A7+1</f>
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2231,204 +2444,6 @@
   </mergeCells>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" scale="96" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.7109375" customWidth="1"/>
-    <col min="3" max="1025" width="8.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <f t="shared" ref="A4:A19" si="0">A3+1</f>
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>114</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
-  <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2440,294 +2455,294 @@
       <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" customWidth="1"/>
-    <col min="2" max="2" width="76.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="1025" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="7.88671875" customWidth="1"/>
+    <col min="2" max="2" width="76.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" customWidth="1"/>
+    <col min="4" max="1025" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <f t="shared" ref="A4:A31" si="0">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
         <v>143</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/Etapa 2/Checklist Gerência de Projeto.xlsx
+++ b/Etapa 2/Checklist Gerência de Projeto.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7185" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Indice" sheetId="1" r:id="rId1"/>
@@ -21,17 +21,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Indice!$A$1:$D$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Processo!$A$1:$D$34</definedName>
   </definedNames>
-  <calcPr calcId="145621" iterateDelta="1E-4"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="148">
   <si>
     <t>Controle de Qualidade</t>
   </si>
@@ -71,7 +66,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>Checklist:</t>
@@ -82,7 +76,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> Processo de Gerência de Projetos</t>
@@ -104,6 +97,9 @@
     <t>O processo de gerência de projetos (PGP) atende as políticas da organização?</t>
   </si>
   <si>
+    <t>Há não conformidade</t>
+  </si>
+  <si>
     <t>Não há registros que as políticas foram atendidas</t>
   </si>
   <si>
@@ -174,6 +170,9 @@
   </si>
   <si>
     <t>As entradas para a atividade "Conduzir Execução do Projeto", foram entregues antes do inicio dessa atividade?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>As pré-condições para a atividade "Conduzir Execução do Projeto", foram atendidas?</t>
@@ -211,7 +210,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>Checklist:</t>
@@ -222,7 +220,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> Checklist de Monitoramento</t>
@@ -279,7 +276,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>Checklist:</t>
@@ -290,7 +286,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> Cronograma do Projeto</t>
@@ -353,7 +348,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>Checklist:</t>
@@ -364,7 +358,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> Documento de Risco do Projeto</t>
@@ -372,6 +365,9 @@
   </si>
   <si>
     <t>Para cada risco do Risco do Projeto(RP) existe a definição do risco?</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
   <si>
     <t>Para cada risco do RP existe o nível do risco?</t>
@@ -385,7 +381,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>Checklist:</t>
@@ -396,29 +391,64 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> Plano de Configuração</t>
+      <t xml:space="preserve"> Plano Geral do Projeto</t>
     </r>
   </si>
   <si>
-    <t>Os Itens de configuração possuem um identificador formatado corretamente?</t>
-  </si>
-  <si>
-    <t>Os Itens de configuração possuem uma sigla?</t>
-  </si>
-  <si>
-    <t>Os Itens de configuração possuem os papeis que possuem permissão para leitura?</t>
-  </si>
-  <si>
-    <t>Os Itens de configuração possuem os papeis que possuem permissão para edição?</t>
-  </si>
-  <si>
-    <t>Possui a definição de estrutura de organização dos artefatos no repositósio?</t>
-  </si>
-  <si>
-    <t>Possui a definição do sistema de configuração e repositório de armazenamento?</t>
+    <t>O objetivo do plano está definido?</t>
+  </si>
+  <si>
+    <t>A visão geral do plano do projeto está definido?</t>
+  </si>
+  <si>
+    <t>O escopo do projeto está definido?</t>
+  </si>
+  <si>
+    <t>O escopo do projeto possui a análise do estado atual?</t>
+  </si>
+  <si>
+    <t>O escopo do projeto possui o desenvolvimento?</t>
+  </si>
+  <si>
+    <t>O escopo do projeto possui testes?</t>
+  </si>
+  <si>
+    <t>O escopo do projeto possui o procedimento para migração?</t>
+  </si>
+  <si>
+    <t>O documento não apresenta uma definição do procedimento de migração, ou algum procedimento que descreva essa atividade</t>
+  </si>
+  <si>
+    <t>O impacto do projeto na organização foi gerada?</t>
+  </si>
+  <si>
+    <t>Foram definidos os recursos não humanos?</t>
+  </si>
+  <si>
+    <t>As restrições para definir a viabilidade do projeto foi realizado?</t>
+  </si>
+  <si>
+    <t>Foram definidos as estimativas do projeto?</t>
+  </si>
+  <si>
+    <t>Foram definidos os riscos para o projeto?</t>
+  </si>
+  <si>
+    <t>Os papéis e recursos foram definidos para o projeto?</t>
+  </si>
+  <si>
+    <t>O documento não apresenta um campo que apresenta a definição dos papeis</t>
+  </si>
+  <si>
+    <t>Foram definidos o modelo do ciclo de vida para o projeto?</t>
+  </si>
+  <si>
+    <t>Há o registro da aprovação do patrocinador do projeto?</t>
+  </si>
+  <si>
+    <t>Há o registro da aprovação do gerente do projeto?</t>
   </si>
   <si>
     <r>
@@ -426,7 +456,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>Checklist:</t>
@@ -437,62 +466,28 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> Plano Geral do Projeto</t>
+      <t xml:space="preserve"> Plano de Configuração</t>
     </r>
   </si>
   <si>
-    <t>O objetivo do plano está definido?</t>
-  </si>
-  <si>
-    <t>A visão geral do plano do projeto está definido?</t>
-  </si>
-  <si>
-    <t>O objetivo do projeto está definido?</t>
-  </si>
-  <si>
-    <t>O escopo do projeto está definido?</t>
-  </si>
-  <si>
-    <t>O escopo do projeto possui a análise do estado atual?</t>
-  </si>
-  <si>
-    <t>O escopo do projeto possui o desenvolvimento?</t>
-  </si>
-  <si>
-    <t>O escopo do projeto possui testes?</t>
-  </si>
-  <si>
-    <t>O escopo do projeto possui o procedimento para migração?</t>
-  </si>
-  <si>
-    <t>O impacto do projeto na organização foi gerada?</t>
-  </si>
-  <si>
-    <t>Foram definidos os recursos não humanos?</t>
-  </si>
-  <si>
-    <t>As restrições para definir a viabilidade do projeto foi realizado?</t>
-  </si>
-  <si>
-    <t>Foram definidos as estimativas do projeto?</t>
-  </si>
-  <si>
-    <t>Foram definidos os riscos para o projeto?</t>
-  </si>
-  <si>
-    <t>Os papéis e recursos foram definidos para o projeto?</t>
-  </si>
-  <si>
-    <t>Foram definidos o modelo do ciclo de vida para o projeto?</t>
-  </si>
-  <si>
-    <t>Há o registro da aprovação do patrocinador do projeto?</t>
-  </si>
-  <si>
-    <t>Há o registro da aprovação do gerente do projeto?</t>
+    <t>Os Itens de configuração possuem um identificador formatado corretamente?</t>
+  </si>
+  <si>
+    <t>Os Itens de configuração possuem uma sigla?</t>
+  </si>
+  <si>
+    <t>Os Itens de configuração possuem os papeis que possuem permissão para leitura?</t>
+  </si>
+  <si>
+    <t>Os Itens de configuração possuem os papeis que possuem permissão para edição?</t>
+  </si>
+  <si>
+    <t>Possui a definição de estrutura de organização dos artefatos no repositósio?</t>
+  </si>
+  <si>
+    <t>Possui a definição do sistema de configuração e repositório de armazenamento?</t>
   </si>
   <si>
     <r>
@@ -500,7 +495,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>Checklist:</t>
@@ -511,7 +505,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> Relatório de Conclusão de Projeto</t>
@@ -604,34 +597,43 @@
   <si>
     <t>Possui aprovação do Gerente?</t>
   </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Há não conformidade</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -639,26 +641,153 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -677,8 +806,194 @@
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -748,96 +1063,381 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="48" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFF2F2F2"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
       <rgbColor rgb="00003366"/>
       <rgbColor rgb="00339966"/>
       <rgbColor rgb="00003300"/>
@@ -1137,90 +1737,91 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B1:C13"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" customWidth="1"/>
-    <col min="2" max="2" width="42.88671875" customWidth="1"/>
-    <col min="3" max="3" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="1025" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="8.55833333333333" customWidth="1"/>
+    <col min="2" max="2" width="42.8833333333333" customWidth="1"/>
+    <col min="3" max="3" width="31.4416666666667" customWidth="1"/>
+    <col min="4" max="1025" width="8.55833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B1" s="13" t="s">
+    <row r="1" ht="22.5" spans="2:3">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="13"/>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" spans="2:3">
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="2"/>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
+    <row r="3" spans="2:2">
+      <c r="B3" s="6"/>
+    </row>
+    <row r="5" ht="15"/>
+    <row r="6" spans="2:3">
+      <c r="B6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="7" t="s">
+    <row r="7" spans="2:3">
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="5"/>
-      <c r="C9" s="8" t="s">
+    <row r="9" spans="2:3">
+      <c r="B9" s="9"/>
+      <c r="C9" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="5"/>
-      <c r="C10" s="8" t="s">
+    <row r="10" spans="2:3">
+      <c r="B10" s="9"/>
+      <c r="C10" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="5"/>
-      <c r="C11" s="8" t="s">
+    <row r="11" spans="2:3">
+      <c r="B11" s="9"/>
+      <c r="C11" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="5"/>
-      <c r="C12" s="8" t="s">
+    <row r="12" spans="2:3">
+      <c r="B12" s="9"/>
+      <c r="C12" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="9"/>
-      <c r="C13" s="10" t="s">
+    <row r="13" ht="15" spans="2:3">
+      <c r="B13" s="13"/>
+      <c r="C13" s="14" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1237,51 +1838,53 @@
     <hyperlink ref="C12" location="PGP!A1" display="Plano Geral do Projeto"/>
     <hyperlink ref="C13" location="RCP!A1" display="Relatório de Conslusão de Projetos"/>
   </hyperlinks>
-  <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" customWidth="1"/>
-    <col min="2" max="2" width="106.44140625" customWidth="1"/>
-    <col min="3" max="3" width="43.44140625" customWidth="1"/>
-    <col min="4" max="4" width="63.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="1025" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="8.55833333333333" customWidth="1"/>
+    <col min="2" max="2" width="106.441666666667" customWidth="1"/>
+    <col min="3" max="3" width="43.4416666666667" customWidth="1"/>
+    <col min="4" max="4" width="63.8833333333333" customWidth="1"/>
+    <col min="5" max="1025" width="8.55833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1289,399 +1892,400 @@
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>146</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <f t="shared" ref="A4:A34" si="0">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="B28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="B29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="B30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="B31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C14" t="s">
-        <v>146</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="B32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="B33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>145</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
       <c r="B34" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>22</v>
+        <v>52</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" scale="67" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="67" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="4" max="1048575" man="1"/>
   </colBreaks>
@@ -1689,1067 +2293,1114 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" customWidth="1"/>
-    <col min="2" max="2" width="65.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.88671875" customWidth="1"/>
-    <col min="4" max="1025" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="8.55833333333333" customWidth="1"/>
+    <col min="2" max="2" width="65.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="16.8833333333333" customWidth="1"/>
+    <col min="4" max="1025" width="8.55833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4">
         <f t="shared" ref="A4:A17" si="0">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" scale="87" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="87" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" customWidth="1"/>
-    <col min="2" max="2" width="69.44140625" customWidth="1"/>
-    <col min="3" max="3" width="16.88671875" customWidth="1"/>
-    <col min="4" max="1025" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="8.55833333333333" customWidth="1"/>
+    <col min="2" max="2" width="69.4416666666667" customWidth="1"/>
+    <col min="3" max="3" width="16.8833333333333" customWidth="1"/>
+    <col min="4" max="1025" width="8.55833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4">
         <f t="shared" ref="A4:A19" si="0">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" scale="84" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="84" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" customWidth="1"/>
-    <col min="2" max="2" width="69.44140625" customWidth="1"/>
-    <col min="3" max="3" width="16.88671875" customWidth="1"/>
-    <col min="4" max="1025" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="8.55833333333333" customWidth="1"/>
+    <col min="2" max="2" width="69.4416666666667" customWidth="1"/>
+    <col min="3" max="3" width="16.8833333333333" customWidth="1"/>
+    <col min="4" max="1025" width="8.55833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
         <f>A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
         <f>A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>144</v>
+        <v>91</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" scale="84" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="84" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" customWidth="1"/>
-    <col min="2" max="2" width="50.6640625" customWidth="1"/>
-    <col min="3" max="1025" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="8.55833333333333" customWidth="1"/>
+    <col min="2" max="2" width="56.5" customWidth="1"/>
+    <col min="3" max="3" width="18.375" customWidth="1"/>
+    <col min="4" max="4" width="114.75" customWidth="1"/>
+    <col min="5" max="1025" width="8.55833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <f t="shared" ref="A4:A19" si="0">A3+1</f>
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>113</v>
+      <c r="C18" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="42" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="2" max="1048575" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" customWidth="1"/>
-    <col min="2" max="2" width="69.109375" customWidth="1"/>
-    <col min="3" max="1025" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="8.55833333333333" customWidth="1"/>
+    <col min="2" max="2" width="69.1083333333333" customWidth="1"/>
+    <col min="3" max="1025" width="8.55833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4">
         <f>A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5">
         <f>A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6">
         <f>A5+1</f>
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7">
         <f>A6+1</f>
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8">
         <f>A7+1</f>
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" scale="96" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="96" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="7.88671875" customWidth="1"/>
-    <col min="2" max="2" width="76.33203125" customWidth="1"/>
-    <col min="3" max="3" width="16.88671875" customWidth="1"/>
-    <col min="4" max="1025" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="7.88333333333333" customWidth="1"/>
+    <col min="2" max="2" width="76.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="16.8833333333333" customWidth="1"/>
+    <col min="4" max="1025" width="8.55833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4">
         <f t="shared" ref="A4:A31" si="0">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" scale="83" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="83" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>